--- a/用例数据/深权/普通开仓/测试结果.xlsx
+++ b/用例数据/深权/普通开仓/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="stkoptionsettlement" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3770" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="492">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -1050,18 +1050,6 @@
     <t>190515X000002475</t>
   </si>
   <si>
-    <t>30000087</t>
-  </si>
-  <si>
-    <t>20210509140400</t>
-  </si>
-  <si>
-    <t>9976493.120</t>
-  </si>
-  <si>
-    <t>30000088</t>
-  </si>
-  <si>
     <t>300ETF沽6月5500</t>
   </si>
   <si>
@@ -1071,39 +1059,9 @@
     <t>0.5551</t>
   </si>
   <si>
-    <t>9950470.120</t>
-  </si>
-  <si>
-    <t>30000089</t>
-  </si>
-  <si>
-    <t>9966037.120</t>
-  </si>
-  <si>
-    <t>30000090</t>
-  </si>
-  <si>
-    <t>9961094.120</t>
-  </si>
-  <si>
-    <t>30000091</t>
-  </si>
-  <si>
-    <t>9968071.120</t>
-  </si>
-  <si>
-    <t>30000092</t>
-  </si>
-  <si>
     <t>9978458.120</t>
   </si>
   <si>
-    <t>30000095</t>
-  </si>
-  <si>
-    <t>30000096</t>
-  </si>
-  <si>
     <t>999012</t>
   </si>
   <si>
@@ -1480,22 +1438,67 @@
   </si>
   <si>
     <t>15101458.120</t>
-  </si>
-  <si>
-    <t>000011721205</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>REGID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0117212005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90000500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>20221201000000</t>
+  </si>
+  <si>
+    <t>000117212005</t>
+  </si>
+  <si>
+    <t>焦振鹏深权</t>
+  </si>
+  <si>
+    <t>TDEXERCISEQTY</t>
+  </si>
+  <si>
+    <t>YDEXERCISEQTY</t>
+  </si>
+  <si>
+    <t>20221201235959</t>
+  </si>
+  <si>
+    <t>30050494</t>
+  </si>
+  <si>
+    <t>20221202001031</t>
+  </si>
+  <si>
+    <t>997655736.800</t>
+  </si>
+  <si>
+    <t>30050495</t>
+  </si>
+  <si>
+    <t>30050496</t>
+  </si>
+  <si>
+    <t>30050497</t>
+  </si>
+  <si>
+    <t>30050498</t>
+  </si>
+  <si>
+    <t>30050499</t>
+  </si>
+  <si>
+    <t>30050652</t>
+  </si>
+  <si>
+    <t>20221202001032</t>
+  </si>
+  <si>
+    <t>996721429.200</t>
+  </si>
+  <si>
+    <t>30050653</t>
+  </si>
+  <si>
+    <t>DIFFCOMMISION</t>
   </si>
 </sst>
 </file>
@@ -1848,7 +1851,7 @@
   <dimension ref="A1:BI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2914,7 +2917,7 @@
   <dimension ref="A1:BA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3282,7 +3285,7 @@
         <v>338</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>64</v>
@@ -3318,7 +3321,7 @@
         <v>117</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>263</v>
@@ -3330,7 +3333,7 @@
         <v>117</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>66</v>
@@ -4818,23 +4821,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CX9"/>
+  <dimension ref="A1:CY9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="28" width="9" style="1"/>
-    <col min="29" max="29" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="27" width="9" style="1"/>
+    <col min="28" max="28" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -5141,10 +5143,13 @@
       <c r="CX1" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="CY1" s="1" t="s">
+        <v>491</v>
+      </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>342</v>
+        <v>479</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>204</v>
@@ -5153,10 +5158,10 @@
         <v>113</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>343</v>
+        <v>478</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>343</v>
+        <v>480</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>216</v>
@@ -5165,7 +5170,7 @@
         <v>112</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>63</v>
@@ -5177,7 +5182,7 @@
         <v>209</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>63</v>
@@ -5222,13 +5227,13 @@
         <v>295</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>296</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>344</v>
+        <v>481</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>66</v>
@@ -5392,10 +5397,13 @@
       <c r="CX2" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="CY2" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>345</v>
+        <v>482</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>204</v>
@@ -5404,10 +5412,10 @@
         <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>343</v>
+        <v>478</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>343</v>
+        <v>480</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>337</v>
@@ -5416,7 +5424,7 @@
         <v>112</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>63</v>
@@ -5428,7 +5436,7 @@
         <v>209</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>63</v>
@@ -5446,7 +5454,7 @@
         <v>338</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>219</v>
@@ -5455,10 +5463,10 @@
         <v>64</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>340</v>
@@ -5473,13 +5481,13 @@
         <v>295</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="AD3" s="1" t="s">
         <v>296</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>349</v>
+        <v>481</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>66</v>
@@ -5643,10 +5651,13 @@
       <c r="CX3" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="CY3" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>350</v>
+        <v>483</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>213</v>
@@ -5655,10 +5666,10 @@
         <v>113</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>343</v>
+        <v>478</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>343</v>
+        <v>480</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>229</v>
@@ -5667,7 +5678,7 @@
         <v>112</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>63</v>
@@ -5679,7 +5690,7 @@
         <v>209</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>63</v>
@@ -5724,13 +5735,13 @@
         <v>303</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="AD4" s="1" t="s">
         <v>304</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>351</v>
+        <v>481</v>
       </c>
       <c r="AF4" s="1" t="s">
         <v>66</v>
@@ -5894,10 +5905,13 @@
       <c r="CX4" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="CY4" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>352</v>
+        <v>484</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>204</v>
@@ -5906,10 +5920,10 @@
         <v>113</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>343</v>
+        <v>478</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>343</v>
+        <v>480</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>236</v>
@@ -5918,7 +5932,7 @@
         <v>112</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>63</v>
@@ -5930,7 +5944,7 @@
         <v>209</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>63</v>
@@ -5975,13 +5989,13 @@
         <v>308</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="AD5" s="1" t="s">
         <v>309</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>353</v>
+        <v>481</v>
       </c>
       <c r="AF5" s="1" t="s">
         <v>66</v>
@@ -6145,10 +6159,13 @@
       <c r="CX5" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="CY5" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>354</v>
+        <v>485</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>213</v>
@@ -6157,10 +6174,10 @@
         <v>113</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>343</v>
+        <v>478</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>343</v>
+        <v>480</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>243</v>
@@ -6169,7 +6186,7 @@
         <v>112</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>63</v>
@@ -6181,7 +6198,7 @@
         <v>209</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>63</v>
@@ -6226,13 +6243,13 @@
         <v>313</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="AD6" s="1" t="s">
         <v>314</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>355</v>
+        <v>481</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>66</v>
@@ -6396,10 +6413,13 @@
       <c r="CX6" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="CY6" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="7" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>356</v>
+        <v>486</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>213</v>
@@ -6408,10 +6428,10 @@
         <v>113</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>343</v>
+        <v>478</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>343</v>
+        <v>480</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>250</v>
@@ -6420,7 +6440,7 @@
         <v>112</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>63</v>
@@ -6432,7 +6452,7 @@
         <v>209</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>63</v>
@@ -6477,13 +6497,13 @@
         <v>318</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="AD7" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>357</v>
+        <v>481</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>66</v>
@@ -6647,10 +6667,13 @@
       <c r="CX7" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="CY7" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="8" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>358</v>
+        <v>487</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>320</v>
@@ -6659,16 +6682,16 @@
         <v>113</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>343</v>
+        <v>478</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>343</v>
+        <v>488</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>112</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>63</v>
@@ -6680,7 +6703,7 @@
         <v>209</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>63</v>
@@ -6728,7 +6751,7 @@
         <v>68</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>357</v>
+        <v>489</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>66</v>
@@ -6883,10 +6906,13 @@
       <c r="CX8" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="CY8" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="9" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>359</v>
+        <v>490</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>320</v>
@@ -6895,16 +6921,16 @@
         <v>113</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>343</v>
+        <v>478</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>343</v>
+        <v>488</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>112</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>63</v>
@@ -6916,7 +6942,7 @@
         <v>209</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>63</v>
@@ -6964,7 +6990,7 @@
         <v>68</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>357</v>
+        <v>489</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>66</v>
@@ -7118,6 +7144,9 @@
       </c>
       <c r="CX9" s="1" t="s">
         <v>66</v>
+      </c>
+      <c r="CY9" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -7148,94 +7177,94 @@
         <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>164</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>192</v>
@@ -7244,67 +7273,67 @@
         <v>193</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>154</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>199</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="AW1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>156</v>
@@ -7313,43 +7342,43 @@
         <v>157</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="BQ1" s="1" t="s">
         <v>95</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="BT1" s="1" t="s">
         <v>166</v>
@@ -7358,37 +7387,37 @@
         <v>97</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="BW1" s="1" t="s">
         <v>149</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="CG1" s="1" t="s">
         <v>88</v>
@@ -7400,7 +7429,7 @@
         <v>89</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="CK1" s="1" t="s">
         <v>107</v>
@@ -7409,112 +7438,112 @@
         <v>86</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="CW1" s="1" t="s">
         <v>203</v>
       </c>
       <c r="CX1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="DL1" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7528,7 +7557,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>62</v>
@@ -7540,25 +7569,25 @@
         <v>113</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>68</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>68</v>
@@ -7582,7 +7611,7 @@
         <v>69</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>68</v>
@@ -7597,7 +7626,7 @@
         <v>68</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>65</v>
@@ -7609,7 +7638,7 @@
         <v>66</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>61</v>
@@ -7618,7 +7647,7 @@
         <v>69</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>68</v>
@@ -7627,7 +7656,7 @@
         <v>65</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>66</v>
@@ -7657,10 +7686,10 @@
         <v>66</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="BE2" s="1" t="s">
         <v>65</v>
@@ -7747,7 +7776,7 @@
         <v>117</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="CI2" s="1" t="s">
         <v>117</v>
@@ -7759,7 +7788,7 @@
         <v>117</v>
       </c>
       <c r="CL2" s="1" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="CM2" s="1" t="s">
         <v>68</v>
@@ -7774,13 +7803,13 @@
         <v>138</v>
       </c>
       <c r="CQ2" s="1" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="CR2" s="1" t="s">
         <v>68</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="CT2" s="1" t="s">
         <v>68</v>
@@ -7875,67 +7904,66 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF7"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="57" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="2.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="56" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="2.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>142</v>
       </c>
@@ -8098,10 +8126,16 @@
       <c r="BB1" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="BC1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>477</v>
+      </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>209</v>
@@ -8113,19 +8147,19 @@
         <v>112</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>113</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>488</v>
+        <v>214</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>63</v>
+        <v>475</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>214</v>
@@ -8140,7 +8174,7 @@
         <v>114</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>489</v>
+        <v>217</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>261</v>
@@ -8259,10 +8293,16 @@
       <c r="BB2" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="BC2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>209</v>
@@ -8274,10 +8314,10 @@
         <v>112</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>113</v>
@@ -8286,7 +8326,7 @@
         <v>214</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>63</v>
+        <v>475</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>214</v>
@@ -8421,21 +8461,15 @@
         <v>66</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BF3" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>209</v>
@@ -8447,10 +8481,10 @@
         <v>112</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>113</v>
@@ -8459,7 +8493,7 @@
         <v>214</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>63</v>
+        <v>475</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>214</v>
@@ -8594,21 +8628,15 @@
         <v>66</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="BD4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BE4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BF4" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>209</v>
@@ -8620,10 +8648,10 @@
         <v>112</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>113</v>
@@ -8632,7 +8660,7 @@
         <v>214</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>63</v>
+        <v>475</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>214</v>
@@ -8767,21 +8795,15 @@
         <v>66</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="BD5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BF5" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>209</v>
@@ -8793,10 +8815,10 @@
         <v>112</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>113</v>
@@ -8805,7 +8827,7 @@
         <v>214</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>63</v>
+        <v>475</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>214</v>
@@ -8940,21 +8962,15 @@
         <v>66</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="BD6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BE6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BF6" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>209</v>
@@ -8966,10 +8982,10 @@
         <v>112</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>113</v>
@@ -8978,7 +8994,7 @@
         <v>214</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>63</v>
+        <v>475</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>214</v>
@@ -8996,7 +9012,7 @@
         <v>338</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>64</v>
@@ -9032,7 +9048,7 @@
         <v>117</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>67</v>
@@ -9044,7 +9060,7 @@
         <v>117</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AG7" s="1" t="s">
         <v>66</v>
@@ -9113,15 +9129,9 @@
         <v>66</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="BD7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BE7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BF7" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9137,7 +9147,7 @@
   <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9199,7 +9209,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -9297,13 +9307,13 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>113</v>
@@ -9336,7 +9346,7 @@
         <v>284</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>64</v>
@@ -9360,7 +9370,7 @@
         <v>139</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>324</v>
+        <v>478</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>72</v>
@@ -9407,13 +9417,13 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>113</v>
@@ -9446,7 +9456,7 @@
         <v>284</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>64</v>
@@ -9470,7 +9480,7 @@
         <v>139</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>324</v>
+        <v>478</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>72</v>
@@ -9517,13 +9527,13 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>113</v>
@@ -9556,7 +9566,7 @@
         <v>287</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>71</v>
@@ -9580,7 +9590,7 @@
         <v>139</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>324</v>
+        <v>478</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>72</v>
@@ -9627,13 +9637,13 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>113</v>
@@ -9666,7 +9676,7 @@
         <v>288</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>64</v>
@@ -9690,7 +9700,7 @@
         <v>139</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>324</v>
+        <v>478</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>72</v>
@@ -9737,13 +9747,13 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>113</v>
@@ -9776,7 +9786,7 @@
         <v>290</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>71</v>
@@ -9800,7 +9810,7 @@
         <v>139</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>324</v>
+        <v>478</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>72</v>
@@ -9847,13 +9857,13 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>113</v>
@@ -9886,7 +9896,7 @@
         <v>292</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>71</v>
@@ -9910,7 +9920,7 @@
         <v>139</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>324</v>
+        <v>478</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>72</v>
@@ -9958,6 +9968,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9965,8 +9976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -10231,7 +10242,7 @@
         <v>214</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>63</v>
@@ -10243,7 +10254,7 @@
         <v>71</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>219</v>
@@ -10258,19 +10269,19 @@
         <v>65</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>66</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>66</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>66</v>
@@ -10282,7 +10293,7 @@
         <v>68</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>69</v>
@@ -10300,7 +10311,7 @@
         <v>69</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>69</v>
@@ -10315,7 +10326,7 @@
         <v>65</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>66</v>
@@ -10353,7 +10364,7 @@
         <v>214</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>63</v>
@@ -10365,7 +10376,7 @@
         <v>71</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>219</v>
@@ -10380,19 +10391,19 @@
         <v>65</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>66</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>66</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>66</v>
@@ -10404,7 +10415,7 @@
         <v>68</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>69</v>
@@ -10422,7 +10433,7 @@
         <v>69</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>69</v>
@@ -10437,7 +10448,7 @@
         <v>65</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>66</v>
@@ -11300,104 +11311,103 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CX9"/>
+  <dimension ref="A1:CY9"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="36" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="50" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="76" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="91" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="93" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="103" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="75" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="90" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="91" max="92" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -11704,31 +11714,34 @@
       <c r="CX1" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="CY1" s="1" t="s">
+        <v>491</v>
+      </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>354</v>
+        <v>479</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>343</v>
+        <v>478</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>343</v>
+        <v>480</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>112</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>63</v>
@@ -11740,7 +11753,7 @@
         <v>209</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>63</v>
@@ -11755,43 +11768,43 @@
         <v>114</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>219</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>355</v>
+        <v>481</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>66</v>
@@ -11803,10 +11816,10 @@
         <v>297</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>315</v>
+        <v>68</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>315</v>
+        <v>68</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>206</v>
@@ -11938,7 +11951,7 @@
         <v>66</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="CT2" s="1" t="s">
         <v>66</v>
@@ -11955,31 +11968,34 @@
       <c r="CX2" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="CY2" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>350</v>
+        <v>482</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>343</v>
+        <v>478</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>343</v>
+        <v>480</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>229</v>
+        <v>337</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>112</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>63</v>
@@ -11991,7 +12007,7 @@
         <v>209</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>63</v>
@@ -12006,43 +12022,43 @@
         <v>114</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>230</v>
+        <v>338</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>265</v>
+        <v>342</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>219</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>233</v>
+        <v>340</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>351</v>
+        <v>481</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>66</v>
@@ -12054,10 +12070,10 @@
         <v>297</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>305</v>
+        <v>68</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>305</v>
+        <v>68</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>206</v>
@@ -12189,10 +12205,10 @@
         <v>66</v>
       </c>
       <c r="CS3" s="1" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="CU3" s="1" t="s">
         <v>70</v>
@@ -12204,30 +12220,36 @@
         <v>300</v>
       </c>
       <c r="CX3" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
+      </c>
+      <c r="CY3" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>359</v>
+        <v>483</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>320</v>
+        <v>213</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>343</v>
+        <v>478</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>343</v>
+        <v>480</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>112</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>63</v>
@@ -12239,7 +12261,7 @@
         <v>209</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>63</v>
@@ -12254,10 +12276,10 @@
         <v>114</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>219</v>
@@ -12266,49 +12288,58 @@
         <v>71</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>210</v>
+        <v>302</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>68</v>
+        <v>303</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>66</v>
+        <v>473</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>68</v>
+        <v>304</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>357</v>
+        <v>481</v>
       </c>
       <c r="AF4" s="1" t="s">
         <v>66</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>68</v>
+        <v>297</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>68</v>
+        <v>297</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>322</v>
+        <v>117</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="AO4" s="1" t="s">
         <v>207</v>
@@ -12428,24 +12459,30 @@
         <v>66</v>
       </c>
       <c r="CS4" s="1" t="s">
-        <v>117</v>
+        <v>269</v>
       </c>
       <c r="CT4" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="CU4" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="CV4" s="1" t="s">
-        <v>68</v>
+        <v>299</v>
       </c>
       <c r="CW4" s="1" t="s">
-        <v>68</v>
+        <v>300</v>
       </c>
       <c r="CX4" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="CY4" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>345</v>
+        <v>484</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>204</v>
@@ -12454,19 +12491,19 @@
         <v>113</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>343</v>
+        <v>478</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>343</v>
+        <v>480</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>337</v>
+        <v>236</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>112</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>63</v>
@@ -12478,7 +12515,7 @@
         <v>209</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>63</v>
@@ -12493,10 +12530,10 @@
         <v>114</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>338</v>
+        <v>237</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>346</v>
+        <v>270</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>219</v>
@@ -12505,31 +12542,31 @@
         <v>64</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>347</v>
+        <v>271</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>349</v>
+        <v>481</v>
       </c>
       <c r="AF5" s="1" t="s">
         <v>66</v>
@@ -12676,10 +12713,10 @@
         <v>66</v>
       </c>
       <c r="CS5" s="1" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="CT5" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="CU5" s="1" t="s">
         <v>70</v>
@@ -12691,33 +12728,36 @@
         <v>300</v>
       </c>
       <c r="CX5" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="CY5" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>342</v>
+        <v>485</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>343</v>
+        <v>478</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>343</v>
+        <v>480</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>112</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>63</v>
@@ -12729,7 +12769,7 @@
         <v>209</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>63</v>
@@ -12744,43 +12784,43 @@
         <v>114</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>219</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>344</v>
+        <v>481</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>66</v>
@@ -12792,10 +12832,10 @@
         <v>297</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>68</v>
+        <v>315</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>68</v>
+        <v>315</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>206</v>
@@ -12927,7 +12967,7 @@
         <v>66</v>
       </c>
       <c r="CS6" s="1" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="CT6" s="1" t="s">
         <v>66</v>
@@ -12944,10 +12984,13 @@
       <c r="CX6" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="CY6" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="7" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>356</v>
+        <v>486</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>213</v>
@@ -12956,10 +12999,10 @@
         <v>113</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>343</v>
+        <v>478</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>343</v>
+        <v>480</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>250</v>
@@ -12968,7 +13011,7 @@
         <v>112</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>63</v>
@@ -12980,7 +13023,7 @@
         <v>209</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>63</v>
@@ -13025,13 +13068,13 @@
         <v>318</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="AD7" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>357</v>
+        <v>481</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>66</v>
@@ -13195,31 +13238,31 @@
       <c r="CX7" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="CY7" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="8" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>352</v>
+        <v>487</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>343</v>
+        <v>478</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>236</v>
+        <v>488</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>112</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>63</v>
@@ -13231,7 +13274,7 @@
         <v>209</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>63</v>
@@ -13246,70 +13289,61 @@
         <v>114</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>219</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>307</v>
+        <v>210</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>308</v>
+        <v>68</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>325</v>
+        <v>66</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>309</v>
+        <v>68</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>353</v>
+        <v>489</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>66</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>297</v>
+        <v>68</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>297</v>
+        <v>68</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>68</v>
+        <v>305</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>68</v>
+        <v>305</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>116</v>
+        <v>321</v>
       </c>
       <c r="AO8" s="1" t="s">
         <v>207</v>
@@ -13429,27 +13463,27 @@
         <v>66</v>
       </c>
       <c r="CS8" s="1" t="s">
-        <v>310</v>
+        <v>117</v>
       </c>
       <c r="CT8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="CU8" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="CV8" s="1" t="s">
-        <v>299</v>
+        <v>68</v>
       </c>
       <c r="CW8" s="1" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="CX8" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="CY8" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="9" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>358</v>
+        <v>490</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>320</v>
@@ -13458,16 +13492,16 @@
         <v>113</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>343</v>
+        <v>478</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>343</v>
+        <v>488</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>112</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>63</v>
@@ -13479,7 +13513,7 @@
         <v>209</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>63</v>
@@ -13494,10 +13528,10 @@
         <v>114</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>219</v>
@@ -13506,10 +13540,10 @@
         <v>71</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>72</v>
@@ -13527,7 +13561,7 @@
         <v>68</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>357</v>
+        <v>489</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>66</v>
@@ -13539,16 +13573,16 @@
         <v>68</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="AK9" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AO9" s="1" t="s">
         <v>207</v>
@@ -13681,6 +13715,9 @@
       </c>
       <c r="CX9" s="1" t="s">
         <v>66</v>
+      </c>
+      <c r="CY9" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
